--- a/doc/checklist.xlsx
+++ b/doc/checklist.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangliang/Desktop/liang_dashboard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540"/>
   </bookViews>
   <sheets>
-    <sheet name="checklist" sheetId="1" r:id="rId4"/>
-    <sheet name="version" sheetId="2" r:id="rId5"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="version" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>刷新</t>
   </si>
@@ -63,9 +76,6 @@
   </si>
   <si>
     <t>reject 的时候加备注</t>
-  </si>
-  <si>
-    <t>标签title</t>
   </si>
   <si>
     <t>dashboard 最左侧显示不全</t>
@@ -116,29 +126,90 @@
 司机order打开map和修改订单  修改显示地址</t>
   </si>
+  <si>
+    <t>加button 查详情</t>
+    <rPh sb="0" eb="1">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cha</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xiang'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据存在 没放</t>
+    <rPh sb="0" eb="1">
+      <t>shu'ju'cun'z</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>mei'fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search 当日所有订单</t>
+    <rPh sb="7" eb="8">
+      <t>dang'ri'suo'you'ding'dan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示订单详情</t>
+    <rPh sb="0" eb="1">
+      <t>xian'shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ding'dan'xiang'qing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试 备注的数据</t>
+    <rPh sb="0" eb="1">
+      <t>ce'shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>bei'zhu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu'ju</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="DengXian"/>
     </font>
   </fonts>
@@ -181,61 +252,103 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -437,7 +550,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -456,7 +569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -486,7 +599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -512,7 +625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -538,7 +651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -564,7 +677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -590,7 +703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -616,7 +729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -642,7 +755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -694,7 +807,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -707,9 +820,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -726,7 +845,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -745,7 +864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -771,7 +890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -797,7 +916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +942,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,7 +968,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,7 +994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +1020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +1046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +1072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +1098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -992,9 +1111,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1008,7 +1133,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1027,7 +1152,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1234,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1260,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1312,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1364,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1390,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1278,89 +1403,95 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.2891" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7344" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="1" customWidth="1"/>
-    <col min="6" max="256" width="10.7344" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
+    <col min="3" max="256" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
@@ -1368,8 +1499,8 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3"/>
@@ -1377,39 +1508,43 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="17" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3"/>
@@ -1417,8 +1552,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="17" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3"/>
@@ -1426,8 +1561,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="17" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3"/>
@@ -1435,8 +1570,8 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="17" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="3"/>
@@ -1444,181 +1579,187 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="17" customHeight="1">
-      <c r="A16" t="s" s="4">
+    <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="17" customHeight="1">
-      <c r="A17" t="s" s="4">
+    <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s" s="4">
-        <v>12</v>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="17" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" ht="17" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" ht="17" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s" s="4">
-        <v>12</v>
+    <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" ht="17" customHeight="1">
-      <c r="A24" s="2"/>
+    <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" ht="17" customHeight="1">
-      <c r="A25" s="2"/>
+    <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="17" customHeight="1">
+    <row r="26" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" ht="17" customHeight="1">
+    <row r="27" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" ht="17" customHeight="1">
+    <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" ht="17" customHeight="1">
+    <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" ht="17" customHeight="1">
+    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="17" customHeight="1">
+    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" ht="17" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1626,49 +1767,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7143" defaultRowHeight="16" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7344" style="5" customWidth="1"/>
-    <col min="2" max="2" width="62.8672" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.7344" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.7344" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7344" style="5" customWidth="1"/>
-    <col min="6" max="256" width="10.7344" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" style="5" customWidth="1"/>
+    <col min="3" max="256" width="10.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="115.15" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:5" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>31</v>
       </c>
       <c r="C3" s="7">
         <v>42390</v>
@@ -1676,49 +1814,49 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="17" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1726,8 +1864,9 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/doc/checklist.xlsx
+++ b/doc/checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangliang/Desktop/liang_dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liangliang/Desktop/liang_dashboard/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540"/>
+    <workbookView xWindow="780" yWindow="460" windowWidth="24820" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>刷新</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>删减代码</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>司机信息</t>
-  </si>
-  <si>
-    <t># my calendar 可以显示这个客服的上班班表</t>
   </si>
   <si>
     <t>reject 的时候加备注</t>
@@ -127,33 +121,6 @@
 修改显示地址</t>
   </si>
   <si>
-    <t>加button 查详情</t>
-    <rPh sb="0" eb="1">
-      <t>jia</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>cha</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xiang'qing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据存在 没放</t>
-    <rPh sb="0" eb="1">
-      <t>shu'ju'cun'z</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>mei'fang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>liang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +159,84 @@
     <rPh sb="6" eb="7">
       <t>shu'ju</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待小新做功能确认</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai'xiao'xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zuo</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gong'neng'que'ren</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图小乔设计UI</t>
+    <rPh sb="0" eb="1">
+      <t>jie'tu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xiao'qiao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濛濛确认功能需求</t>
+    <rPh sb="0" eb="1">
+      <t>meng'meng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>que'ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'neng'xu'qiu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询订单找不到单号</t>
+    <rPh sb="0" eb="1">
+      <t>cha'xun'ding'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhao'bu'dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dan'hao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间问题</t>
+    <rPh sb="0" eb="1">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,307 +1467,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV31"/>
+  <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
-    <col min="3" max="256" width="10.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="256" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
+      <c r="A15" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>18</v>
+      <c r="A16" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1742,21 +1821,10 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
   </sheetData>
+  <sortState ref="A1:D30">
+    <sortCondition ref="B1"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1781,10 +1849,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1792,10 +1860,10 @@
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1803,10 +1871,10 @@
     </row>
     <row r="3" spans="1:5" ht="115.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7">
         <v>42390</v>

--- a/doc/checklist.xlsx
+++ b/doc/checklist.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>刷新</t>
   </si>
@@ -237,6 +237,55 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待客服使用之后提出</t>
+    <rPh sb="0" eb="1">
+      <t>deng'dai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke'fu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'yong'zhi'hou</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ti'chu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司机接单刷新</t>
+    <rPh sb="0" eb="1">
+      <t>si'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie'dan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shua'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在service上面加一个local list 进行比对</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>shang'm</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jia'yi'ge</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>jin'xing'bi'dui</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,7 +1519,7 @@
   <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1478,7 +1527,7 @@
     <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
     <col min="5" max="256" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1731,27 +1780,35 @@
     </row>
     <row r="20" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1764,7 +1821,9 @@
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,7 +1854,9 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1808,10 +1869,14 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,8 +1887,8 @@
       <c r="E29" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A1:D30">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:D29">
+    <sortCondition descending="1" ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
